--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H2">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J2">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N2">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P2">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q2">
-        <v>81.43168973723598</v>
+        <v>4.837156974421667</v>
       </c>
       <c r="R2">
-        <v>732.8852076351239</v>
+        <v>43.534412769795</v>
       </c>
       <c r="S2">
-        <v>0.0546321233454918</v>
+        <v>0.003933192764731923</v>
       </c>
       <c r="T2">
-        <v>0.05463212334549182</v>
+        <v>0.003933192764731924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H3">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J3">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P3">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q3">
-        <v>44.80242208063778</v>
+        <v>50.54600628392222</v>
       </c>
       <c r="R3">
-        <v>403.22179872574</v>
+        <v>454.9140565553</v>
       </c>
       <c r="S3">
-        <v>0.03005772638618058</v>
+        <v>0.04110000714330481</v>
       </c>
       <c r="T3">
-        <v>0.03005772638618059</v>
+        <v>0.04110000714330481</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>84.76851766666665</v>
+        <v>95.63567833333333</v>
       </c>
       <c r="H4">
-        <v>254.305553</v>
+        <v>286.907035</v>
       </c>
       <c r="I4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="J4">
-        <v>0.2571740874301185</v>
+        <v>0.2808828217467972</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P4">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q4">
-        <v>257.0956805028258</v>
+        <v>290.0548514737822</v>
       </c>
       <c r="R4">
-        <v>2313.861124525432</v>
+        <v>2610.49366326404</v>
       </c>
       <c r="S4">
-        <v>0.1724842376984461</v>
+        <v>0.2358496218387604</v>
       </c>
       <c r="T4">
-        <v>0.1724842376984462</v>
+        <v>0.2358496218387605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>401.04908</v>
       </c>
       <c r="I5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J5">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N5">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P5">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q5">
-        <v>128.42072800496</v>
+        <v>6.761553805773334</v>
       </c>
       <c r="R5">
-        <v>1155.78655204464</v>
+        <v>60.85398425196001</v>
       </c>
       <c r="S5">
-        <v>0.08615683986324912</v>
+        <v>0.005497959782542084</v>
       </c>
       <c r="T5">
-        <v>0.08615683986324914</v>
+        <v>0.005497959782542084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>401.04908</v>
       </c>
       <c r="I6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J6">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,22 +806,22 @@
         <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P6">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q6">
         <v>70.65504447404446</v>
       </c>
       <c r="R6">
-        <v>635.8954002664001</v>
+        <v>635.8954002664</v>
       </c>
       <c r="S6">
-        <v>0.04740212461687553</v>
+        <v>0.05745108359861522</v>
       </c>
       <c r="T6">
-        <v>0.04740212461687555</v>
+        <v>0.05745108359861522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>401.04908</v>
       </c>
       <c r="I7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="J7">
-        <v>0.4055728628296552</v>
+        <v>0.392628215788982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P7">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q7">
         <v>405.4492122617245</v>
@@ -880,10 +880,10 @@
         <v>3649.04291035552</v>
       </c>
       <c r="S7">
-        <v>0.2720138983495305</v>
+        <v>0.3296791724078246</v>
       </c>
       <c r="T7">
-        <v>0.2720138983495305</v>
+        <v>0.3296791724078246</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>333.49131</v>
       </c>
       <c r="I8">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J8">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.960636</v>
+        <v>0.05057900000000001</v>
       </c>
       <c r="N8">
-        <v>2.881908</v>
+        <v>0.151737</v>
       </c>
       <c r="O8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="P8">
-        <v>0.2124324572954377</v>
+        <v>0.01400296657613869</v>
       </c>
       <c r="Q8">
-        <v>106.78791935772</v>
+        <v>5.622552322830001</v>
       </c>
       <c r="R8">
-        <v>961.0912742194801</v>
+        <v>50.60297090547</v>
       </c>
       <c r="S8">
-        <v>0.07164349408669674</v>
+        <v>0.004571814028864683</v>
       </c>
       <c r="T8">
-        <v>0.07164349408669676</v>
+        <v>0.004571814028864684</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>333.49131</v>
       </c>
       <c r="I9">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J9">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>1.58558</v>
       </c>
       <c r="O9">
-        <v>0.116876963330717</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="P9">
-        <v>0.1168769633307171</v>
+        <v>0.146324388539341</v>
       </c>
       <c r="Q9">
         <v>58.7530168122</v>
@@ -1004,10 +1004,10 @@
         <v>528.7771513098</v>
       </c>
       <c r="S9">
-        <v>0.03941711232766092</v>
+        <v>0.04777329779742095</v>
       </c>
       <c r="T9">
-        <v>0.03941711232766093</v>
+        <v>0.04777329779742096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>333.49131</v>
       </c>
       <c r="I10">
-        <v>0.3372530497402263</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="J10">
-        <v>0.3372530497402264</v>
+        <v>0.3264889624642208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>9.098744</v>
       </c>
       <c r="O10">
-        <v>0.6706905793738452</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="P10">
-        <v>0.6706905793738454</v>
+        <v>0.8396726448845202</v>
       </c>
       <c r="Q10">
         <v>337.15022843496</v>
@@ -1066,10 +1066,10 @@
         <v>3034.35205591464</v>
       </c>
       <c r="S10">
-        <v>0.2261924433258686</v>
+        <v>0.2741438506379351</v>
       </c>
       <c r="T10">
-        <v>0.2261924433258687</v>
+        <v>0.2741438506379351</v>
       </c>
     </row>
   </sheetData>
